--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value25.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value25.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.219397598651203</v>
+        <v>4.650391101837158</v>
       </c>
       <c r="B1">
-        <v>1.346718399457298</v>
+        <v>3.713689088821411</v>
       </c>
       <c r="C1">
-        <v>1.343053888124993</v>
+        <v>3.281786441802979</v>
       </c>
       <c r="D1">
-        <v>1.628219235294567</v>
+        <v>4.116365432739258</v>
       </c>
       <c r="E1">
-        <v>2.33653696911171</v>
+        <v>5.256838798522949</v>
       </c>
     </row>
   </sheetData>
